--- a/LAB02/Time.xlsx
+++ b/LAB02/Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ribeiro\Dropbox\UF\Arquitetura Avançada para Computação\2021\LAB02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDD1EF9-8870-47BD-975F-97BC54AEC3BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC6C99A-B061-48EC-A199-629DA6552416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{9EAA9EA4-EBB4-4A16-BFEA-6E125F02D37D}"/>
+    <workbookView xWindow="17172" yWindow="-1020" windowWidth="23256" windowHeight="12576" xr2:uid="{9EAA9EA4-EBB4-4A16-BFEA-6E125F02D37D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Serial</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>5.221</t>
+  </si>
+  <si>
+    <t>0.09375</t>
+  </si>
+  <si>
+    <t>1.109375</t>
   </si>
 </sst>
 </file>
@@ -131,16 +137,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,12 +466,13 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -473,178 +480,206 @@
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>100</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1000</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>10000</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>100000</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>1000000</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>10000000</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>100000000</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>

--- a/LAB02/Time.xlsx
+++ b/LAB02/Time.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ribeiro\Dropbox\UF\Arquitetura Avançada para Computação\2021\LAB02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ribeiro\Documents\GitHub\Arquitetura-Avancada-Computacao\LAB02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC6C99A-B061-48EC-A199-629DA6552416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B280652-834D-45D4-8A5B-481AD512FF2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17172" yWindow="-1020" windowWidth="23256" windowHeight="12576" xr2:uid="{9EAA9EA4-EBB4-4A16-BFEA-6E125F02D37D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{9EAA9EA4-EBB4-4A16-BFEA-6E125F02D37D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Serial</t>
   </si>
@@ -39,31 +39,49 @@
     <t>t</t>
   </si>
   <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>0.292</t>
-  </si>
-  <si>
-    <t>0.317</t>
-  </si>
-  <si>
-    <t>0.711</t>
-  </si>
-  <si>
-    <t>0.742</t>
-  </si>
-  <si>
-    <t>1.312</t>
-  </si>
-  <si>
-    <t>5.221</t>
-  </si>
-  <si>
-    <t>0.09375</t>
-  </si>
-  <si>
-    <t>1.109375</t>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>1.928</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>10^9</t>
+  </si>
+  <si>
+    <t>4.472</t>
+  </si>
+  <si>
+    <t>24.373</t>
   </si>
 </sst>
 </file>
@@ -466,7 +484,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,13 +522,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,13 +536,13 @@
         <v>1000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>1000</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,8 +555,8 @@
       <c r="E5" s="2">
         <v>10000</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,8 +569,8 @@
       <c r="E6" s="2">
         <v>100000</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -565,8 +583,8 @@
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -580,7 +598,7 @@
         <v>10000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,14 +612,22 @@
         <v>100000000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>

--- a/LAB02/Time.xlsx
+++ b/LAB02/Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ribeiro\Documents\GitHub\Arquitetura-Avancada-Computacao\LAB02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B280652-834D-45D4-8A5B-481AD512FF2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8379C01F-F24F-4B59-BF27-252953C5320A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{9EAA9EA4-EBB4-4A16-BFEA-6E125F02D37D}"/>
+    <workbookView xWindow="17172" yWindow="-1020" windowWidth="23256" windowHeight="12576" xr2:uid="{9EAA9EA4-EBB4-4A16-BFEA-6E125F02D37D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Serial</t>
   </si>
   <si>
-    <t>Parallel</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -82,6 +79,54 @@
   </si>
   <si>
     <t>24.373</t>
+  </si>
+  <si>
+    <t>Parallel (8 Threads)</t>
+  </si>
+  <si>
+    <t>Parallel (4 Threads)</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.040</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>6.959</t>
+  </si>
+  <si>
+    <t>Parallel (2 Threads)</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>0.1.079</t>
+  </si>
+  <si>
+    <t>11.055</t>
   </si>
 </sst>
 </file>
@@ -481,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532BB0A8-F78D-49B0-AA9E-69F0816EF169}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,173 +538,289 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>100</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>1000</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10000</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>10000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100000</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>100000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1000000</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10000000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
         <v>10000000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>100000000</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
         <v>100000000</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="E16" s="3"/>
@@ -738,9 +899,11 @@
       <c r="D28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
